--- a/Team-Data/2007-08/3-21-2007-08.xlsx
+++ b/Team-Data/2007-08/3-21-2007-08.xlsx
@@ -50,7 +50,6 @@
       <right style="thin"/>
       <top style="thin"/>
       <bottom style="thin"/>
-      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
@@ -66,6 +65,74 @@
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -744,7 +811,7 @@
         <v>-2.3</v>
       </c>
       <c r="AD2" t="n">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="AE2" t="n">
         <v>19</v>
@@ -756,7 +823,7 @@
         <v>19</v>
       </c>
       <c r="AH2" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AI2" t="n">
         <v>24</v>
@@ -774,10 +841,10 @@
         <v>28</v>
       </c>
       <c r="AN2" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AO2" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AP2" t="n">
         <v>7</v>
@@ -792,13 +859,13 @@
         <v>20</v>
       </c>
       <c r="AT2" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AU2" t="n">
         <v>15</v>
       </c>
       <c r="AV2" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AW2" t="n">
         <v>14</v>
@@ -831,7 +898,7 @@
       </c>
       <c r="BF2" t="inlineStr">
         <is>
-          <t>3-21-2007-08</t>
+          <t>2008-03-21</t>
         </is>
       </c>
     </row>
@@ -926,7 +993,7 @@
         <v>10.3</v>
       </c>
       <c r="AD3" t="n">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="AE3" t="n">
         <v>1</v>
@@ -941,13 +1008,13 @@
         <v>23</v>
       </c>
       <c r="AI3" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AJ3" t="n">
         <v>30</v>
       </c>
       <c r="AK3" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AL3" t="n">
         <v>10</v>
@@ -962,7 +1029,7 @@
         <v>9</v>
       </c>
       <c r="AP3" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AQ3" t="n">
         <v>8</v>
@@ -974,13 +1041,13 @@
         <v>9</v>
       </c>
       <c r="AT3" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AU3" t="n">
         <v>10</v>
       </c>
       <c r="AV3" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AW3" t="n">
         <v>4</v>
@@ -989,13 +1056,13 @@
         <v>18</v>
       </c>
       <c r="AY3" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AZ3" t="n">
         <v>25</v>
       </c>
       <c r="BA3" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="BB3" t="n">
         <v>9</v>
@@ -1013,7 +1080,7 @@
       </c>
       <c r="BF3" t="inlineStr">
         <is>
-          <t>3-21-2007-08</t>
+          <t>2008-03-21</t>
         </is>
       </c>
     </row>
@@ -1108,7 +1175,7 @@
         <v>-5.2</v>
       </c>
       <c r="AD4" t="n">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="AE4" t="n">
         <v>23</v>
@@ -1129,7 +1196,7 @@
         <v>19</v>
       </c>
       <c r="AK4" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AL4" t="n">
         <v>16</v>
@@ -1153,7 +1220,7 @@
         <v>18</v>
       </c>
       <c r="AS4" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AT4" t="n">
         <v>24</v>
@@ -1195,7 +1262,7 @@
       </c>
       <c r="BF4" t="inlineStr">
         <is>
-          <t>3-21-2007-08</t>
+          <t>2008-03-21</t>
         </is>
       </c>
     </row>
@@ -1290,19 +1357,19 @@
         <v>-2.7</v>
       </c>
       <c r="AD5" t="n">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="AE5" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AF5" t="n">
         <v>21</v>
       </c>
       <c r="AG5" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AH5" t="n">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="AI5" t="n">
         <v>21</v>
@@ -1323,7 +1390,7 @@
         <v>15</v>
       </c>
       <c r="AO5" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AP5" t="n">
         <v>17</v>
@@ -1362,7 +1429,7 @@
         <v>13</v>
       </c>
       <c r="BB5" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="BC5" t="n">
         <v>21</v>
@@ -1377,7 +1444,7 @@
       </c>
       <c r="BF5" t="inlineStr">
         <is>
-          <t>3-21-2007-08</t>
+          <t>2008-03-21</t>
         </is>
       </c>
     </row>
@@ -1394,16 +1461,16 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E6" t="n">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F6" t="n">
         <v>30</v>
       </c>
       <c r="G6" t="n">
-        <v>0.571</v>
+        <v>0.5649999999999999</v>
       </c>
       <c r="H6" t="n">
         <v>48.5</v>
@@ -1412,7 +1479,7 @@
         <v>36</v>
       </c>
       <c r="J6" t="n">
-        <v>81.7</v>
+        <v>81.8</v>
       </c>
       <c r="K6" t="n">
         <v>0.44</v>
@@ -1421,16 +1488,16 @@
         <v>7.1</v>
       </c>
       <c r="M6" t="n">
-        <v>19.5</v>
+        <v>19.4</v>
       </c>
       <c r="N6" t="n">
-        <v>0.365</v>
+        <v>0.367</v>
       </c>
       <c r="O6" t="n">
-        <v>18</v>
+        <v>18.1</v>
       </c>
       <c r="P6" t="n">
-        <v>25</v>
+        <v>25.2</v>
       </c>
       <c r="Q6" t="n">
         <v>0.72</v>
@@ -1439,10 +1506,10 @@
         <v>13</v>
       </c>
       <c r="S6" t="n">
-        <v>31.3</v>
+        <v>31.2</v>
       </c>
       <c r="T6" t="n">
-        <v>44.4</v>
+        <v>44.3</v>
       </c>
       <c r="U6" t="n">
         <v>19.9</v>
@@ -1451,7 +1518,7 @@
         <v>14.1</v>
       </c>
       <c r="W6" t="n">
-        <v>7.1</v>
+        <v>7.2</v>
       </c>
       <c r="X6" t="n">
         <v>5</v>
@@ -1460,19 +1527,19 @@
         <v>4.5</v>
       </c>
       <c r="Z6" t="n">
-        <v>21.2</v>
+        <v>21.3</v>
       </c>
       <c r="AA6" t="n">
-        <v>20.2</v>
+        <v>20.3</v>
       </c>
       <c r="AB6" t="n">
-        <v>97.09999999999999</v>
+        <v>97.2</v>
       </c>
       <c r="AC6" t="n">
-        <v>-0.1</v>
+        <v>-0.2</v>
       </c>
       <c r="AD6" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AE6" t="n">
         <v>13</v>
@@ -1502,7 +1569,7 @@
         <v>10</v>
       </c>
       <c r="AN6" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AO6" t="n">
         <v>21</v>
@@ -1511,7 +1578,7 @@
         <v>15</v>
       </c>
       <c r="AQ6" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AR6" t="n">
         <v>3</v>
@@ -1529,7 +1596,7 @@
         <v>9</v>
       </c>
       <c r="AW6" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AX6" t="n">
         <v>11</v>
@@ -1559,7 +1626,7 @@
       </c>
       <c r="BF6" t="inlineStr">
         <is>
-          <t>3-21-2007-08</t>
+          <t>2008-03-21</t>
         </is>
       </c>
     </row>
@@ -1654,7 +1721,7 @@
         <v>4.8</v>
       </c>
       <c r="AD7" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AE7" t="n">
         <v>10</v>
@@ -1666,10 +1733,10 @@
         <v>10</v>
       </c>
       <c r="AH7" t="n">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="AI7" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AJ7" t="n">
         <v>24</v>
@@ -1714,10 +1781,10 @@
         <v>29</v>
       </c>
       <c r="AX7" t="n">
+        <v>8</v>
+      </c>
+      <c r="AY7" t="n">
         <v>7</v>
-      </c>
-      <c r="AY7" t="n">
-        <v>8</v>
       </c>
       <c r="AZ7" t="n">
         <v>22</v>
@@ -1726,7 +1793,7 @@
         <v>14</v>
       </c>
       <c r="BB7" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="BC7" t="n">
         <v>8</v>
@@ -1741,7 +1808,7 @@
       </c>
       <c r="BF7" t="inlineStr">
         <is>
-          <t>3-21-2007-08</t>
+          <t>2008-03-21</t>
         </is>
       </c>
     </row>
@@ -1758,28 +1825,28 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E8" t="n">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F8" t="n">
         <v>28</v>
       </c>
       <c r="G8" t="n">
-        <v>0.594</v>
+        <v>0.588</v>
       </c>
       <c r="H8" t="n">
         <v>48.4</v>
       </c>
       <c r="I8" t="n">
-        <v>39.8</v>
+        <v>39.7</v>
       </c>
       <c r="J8" t="n">
-        <v>85.5</v>
+        <v>85.40000000000001</v>
       </c>
       <c r="K8" t="n">
-        <v>0.466</v>
+        <v>0.465</v>
       </c>
       <c r="L8" t="n">
         <v>6.8</v>
@@ -1788,7 +1855,7 @@
         <v>19.1</v>
       </c>
       <c r="N8" t="n">
-        <v>0.356</v>
+        <v>0.355</v>
       </c>
       <c r="O8" t="n">
         <v>22.9</v>
@@ -1797,28 +1864,28 @@
         <v>30.4</v>
       </c>
       <c r="Q8" t="n">
-        <v>0.753</v>
+        <v>0.754</v>
       </c>
       <c r="R8" t="n">
         <v>11.5</v>
       </c>
       <c r="S8" t="n">
-        <v>32.5</v>
+        <v>32.6</v>
       </c>
       <c r="T8" t="n">
-        <v>44</v>
+        <v>44.1</v>
       </c>
       <c r="U8" t="n">
-        <v>24.4</v>
+        <v>24.3</v>
       </c>
       <c r="V8" t="n">
-        <v>14.9</v>
+        <v>15</v>
       </c>
       <c r="W8" t="n">
         <v>9.300000000000001</v>
       </c>
       <c r="X8" t="n">
-        <v>6.8</v>
+        <v>6.9</v>
       </c>
       <c r="Y8" t="n">
         <v>5</v>
@@ -1830,13 +1897,13 @@
         <v>23.8</v>
       </c>
       <c r="AB8" t="n">
-        <v>109.3</v>
+        <v>109.1</v>
       </c>
       <c r="AC8" t="n">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="AD8" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AE8" t="n">
         <v>12</v>
@@ -1848,7 +1915,7 @@
         <v>12</v>
       </c>
       <c r="AH8" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AI8" t="n">
         <v>4</v>
@@ -1857,7 +1924,7 @@
         <v>3</v>
       </c>
       <c r="AK8" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AL8" t="n">
         <v>13</v>
@@ -1881,7 +1948,7 @@
         <v>14</v>
       </c>
       <c r="AS8" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AT8" t="n">
         <v>4</v>
@@ -1890,7 +1957,7 @@
         <v>3</v>
       </c>
       <c r="AV8" t="n">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="AW8" t="n">
         <v>1</v>
@@ -1899,7 +1966,7 @@
         <v>1</v>
       </c>
       <c r="AY8" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AZ8" t="n">
         <v>16</v>
@@ -1923,7 +1990,7 @@
       </c>
       <c r="BF8" t="inlineStr">
         <is>
-          <t>3-21-2007-08</t>
+          <t>2008-03-21</t>
         </is>
       </c>
     </row>
@@ -2018,7 +2085,7 @@
         <v>7.4</v>
       </c>
       <c r="AD9" t="n">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="AE9" t="n">
         <v>2</v>
@@ -2030,16 +2097,16 @@
         <v>2</v>
       </c>
       <c r="AH9" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="AI9" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AJ9" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AK9" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AL9" t="n">
         <v>18</v>
@@ -2048,13 +2115,13 @@
         <v>22</v>
       </c>
       <c r="AN9" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="AO9" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AP9" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AQ9" t="n">
         <v>13</v>
@@ -2075,7 +2142,7 @@
         <v>1</v>
       </c>
       <c r="AW9" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AX9" t="n">
         <v>4</v>
@@ -2084,10 +2151,10 @@
         <v>3</v>
       </c>
       <c r="AZ9" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="BA9" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="BB9" t="n">
         <v>15</v>
@@ -2105,7 +2172,7 @@
       </c>
       <c r="BF9" t="inlineStr">
         <is>
-          <t>3-21-2007-08</t>
+          <t>2008-03-21</t>
         </is>
       </c>
     </row>
@@ -2122,16 +2189,16 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E10" t="n">
         <v>42</v>
       </c>
       <c r="F10" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G10" t="n">
-        <v>0.618</v>
+        <v>0.627</v>
       </c>
       <c r="H10" t="n">
         <v>48.2</v>
@@ -2140,7 +2207,7 @@
         <v>41.4</v>
       </c>
       <c r="J10" t="n">
-        <v>89.59999999999999</v>
+        <v>89.5</v>
       </c>
       <c r="K10" t="n">
         <v>0.463</v>
@@ -2152,28 +2219,28 @@
         <v>26.9</v>
       </c>
       <c r="N10" t="n">
-        <v>0.35</v>
+        <v>0.351</v>
       </c>
       <c r="O10" t="n">
-        <v>18.6</v>
+        <v>18.7</v>
       </c>
       <c r="P10" t="n">
-        <v>24.9</v>
+        <v>25</v>
       </c>
       <c r="Q10" t="n">
         <v>0.746</v>
       </c>
       <c r="R10" t="n">
-        <v>12.4</v>
+        <v>12.3</v>
       </c>
       <c r="S10" t="n">
         <v>30.1</v>
       </c>
       <c r="T10" t="n">
-        <v>42.5</v>
+        <v>42.4</v>
       </c>
       <c r="U10" t="n">
-        <v>22.7</v>
+        <v>22.8</v>
       </c>
       <c r="V10" t="n">
         <v>13.2</v>
@@ -2185,10 +2252,10 @@
         <v>4.5</v>
       </c>
       <c r="Y10" t="n">
-        <v>5</v>
+        <v>5.1</v>
       </c>
       <c r="Z10" t="n">
-        <v>23.3</v>
+        <v>23.4</v>
       </c>
       <c r="AA10" t="n">
         <v>21.5</v>
@@ -2197,16 +2264,16 @@
         <v>110.9</v>
       </c>
       <c r="AC10" t="n">
-        <v>2.9</v>
+        <v>3</v>
       </c>
       <c r="AD10" t="n">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="AE10" t="n">
         <v>11</v>
       </c>
       <c r="AF10" t="n">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="AG10" t="n">
         <v>11</v>
@@ -2230,10 +2297,10 @@
         <v>1</v>
       </c>
       <c r="AN10" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AO10" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="AP10" t="n">
         <v>16</v>
@@ -2242,13 +2309,13 @@
         <v>19</v>
       </c>
       <c r="AR10" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="AS10" t="n">
         <v>18</v>
       </c>
       <c r="AT10" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AU10" t="n">
         <v>8</v>
@@ -2260,13 +2327,13 @@
         <v>2</v>
       </c>
       <c r="AX10" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AY10" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AZ10" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="BA10" t="n">
         <v>12</v>
@@ -2287,7 +2354,7 @@
       </c>
       <c r="BF10" t="inlineStr">
         <is>
-          <t>3-21-2007-08</t>
+          <t>2008-03-21</t>
         </is>
       </c>
     </row>
@@ -2304,16 +2371,16 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E11" t="n">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F11" t="n">
         <v>22</v>
       </c>
       <c r="G11" t="n">
-        <v>0.681</v>
+        <v>0.676</v>
       </c>
       <c r="H11" t="n">
         <v>48.1</v>
@@ -2328,22 +2395,22 @@
         <v>0.45</v>
       </c>
       <c r="L11" t="n">
-        <v>7.2</v>
+        <v>7.1</v>
       </c>
       <c r="M11" t="n">
         <v>21</v>
       </c>
       <c r="N11" t="n">
-        <v>0.341</v>
+        <v>0.34</v>
       </c>
       <c r="O11" t="n">
-        <v>16</v>
+        <v>15.9</v>
       </c>
       <c r="P11" t="n">
         <v>22.1</v>
       </c>
       <c r="Q11" t="n">
-        <v>0.721</v>
+        <v>0.719</v>
       </c>
       <c r="R11" t="n">
         <v>12.1</v>
@@ -2358,7 +2425,7 @@
         <v>21.7</v>
       </c>
       <c r="V11" t="n">
-        <v>14.2</v>
+        <v>14.3</v>
       </c>
       <c r="W11" t="n">
         <v>7.3</v>
@@ -2367,22 +2434,22 @@
         <v>5.3</v>
       </c>
       <c r="Y11" t="n">
-        <v>4.5</v>
+        <v>4.4</v>
       </c>
       <c r="Z11" t="n">
         <v>19.5</v>
       </c>
       <c r="AA11" t="n">
-        <v>19.6</v>
+        <v>19.7</v>
       </c>
       <c r="AB11" t="n">
-        <v>96.5</v>
+        <v>96.40000000000001</v>
       </c>
       <c r="AC11" t="n">
         <v>4.7</v>
       </c>
       <c r="AD11" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AE11" t="n">
         <v>4</v>
@@ -2394,13 +2461,13 @@
         <v>5</v>
       </c>
       <c r="AH11" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AI11" t="n">
+        <v>17</v>
+      </c>
+      <c r="AJ11" t="n">
         <v>15</v>
-      </c>
-      <c r="AJ11" t="n">
-        <v>14</v>
       </c>
       <c r="AK11" t="n">
         <v>18</v>
@@ -2421,7 +2488,7 @@
         <v>26</v>
       </c>
       <c r="AQ11" t="n">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="AR11" t="n">
         <v>9</v>
@@ -2448,7 +2515,7 @@
         <v>12</v>
       </c>
       <c r="AZ11" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="BA11" t="n">
         <v>27</v>
@@ -2469,7 +2536,7 @@
       </c>
       <c r="BF11" t="inlineStr">
         <is>
-          <t>3-21-2007-08</t>
+          <t>2008-03-21</t>
         </is>
       </c>
     </row>
@@ -2486,16 +2553,16 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E12" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F12" t="n">
         <v>41</v>
       </c>
       <c r="G12" t="n">
-        <v>0.406</v>
+        <v>0.397</v>
       </c>
       <c r="H12" t="n">
         <v>48.2</v>
@@ -2510,37 +2577,37 @@
         <v>0.442</v>
       </c>
       <c r="L12" t="n">
-        <v>8.9</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="M12" t="n">
         <v>24.3</v>
       </c>
       <c r="N12" t="n">
-        <v>0.367</v>
+        <v>0.364</v>
       </c>
       <c r="O12" t="n">
-        <v>18.9</v>
+        <v>18.8</v>
       </c>
       <c r="P12" t="n">
-        <v>24.6</v>
+        <v>24.4</v>
       </c>
       <c r="Q12" t="n">
-        <v>0.768</v>
+        <v>0.769</v>
       </c>
       <c r="R12" t="n">
-        <v>11.3</v>
+        <v>11.2</v>
       </c>
       <c r="S12" t="n">
         <v>31.9</v>
       </c>
       <c r="T12" t="n">
-        <v>43.2</v>
+        <v>43.1</v>
       </c>
       <c r="U12" t="n">
         <v>22.6</v>
       </c>
       <c r="V12" t="n">
-        <v>15.2</v>
+        <v>15.3</v>
       </c>
       <c r="W12" t="n">
         <v>7.6</v>
@@ -2558,13 +2625,13 @@
         <v>21.7</v>
       </c>
       <c r="AB12" t="n">
-        <v>103.5</v>
+        <v>103.2</v>
       </c>
       <c r="AC12" t="n">
-        <v>-2.2</v>
+        <v>-2.4</v>
       </c>
       <c r="AD12" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AE12" t="n">
         <v>21</v>
@@ -2576,7 +2643,7 @@
         <v>21</v>
       </c>
       <c r="AH12" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AI12" t="n">
         <v>9</v>
@@ -2594,19 +2661,19 @@
         <v>3</v>
       </c>
       <c r="AN12" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AO12" t="n">
         <v>13</v>
       </c>
       <c r="AP12" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AQ12" t="n">
         <v>10</v>
       </c>
       <c r="AR12" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AS12" t="n">
         <v>8</v>
@@ -2621,7 +2688,7 @@
         <v>27</v>
       </c>
       <c r="AW12" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AX12" t="n">
         <v>10</v>
@@ -2639,7 +2706,7 @@
         <v>7</v>
       </c>
       <c r="BC12" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="BD12" t="n">
         <v>10</v>
@@ -2651,7 +2718,7 @@
       </c>
       <c r="BF12" t="inlineStr">
         <is>
-          <t>3-21-2007-08</t>
+          <t>2008-03-21</t>
         </is>
       </c>
     </row>
@@ -2668,28 +2735,28 @@
         </is>
       </c>
       <c r="D13" t="n">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E13" t="n">
         <v>21</v>
       </c>
       <c r="F13" t="n">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="G13" t="n">
-        <v>0.309</v>
+        <v>0.313</v>
       </c>
       <c r="H13" t="n">
         <v>48.4</v>
       </c>
       <c r="I13" t="n">
-        <v>34.4</v>
+        <v>34.3</v>
       </c>
       <c r="J13" t="n">
         <v>78.59999999999999</v>
       </c>
       <c r="K13" t="n">
-        <v>0.438</v>
+        <v>0.437</v>
       </c>
       <c r="L13" t="n">
         <v>4.3</v>
@@ -2698,31 +2765,31 @@
         <v>13.2</v>
       </c>
       <c r="N13" t="n">
-        <v>0.33</v>
+        <v>0.325</v>
       </c>
       <c r="O13" t="n">
-        <v>21</v>
+        <v>21.1</v>
       </c>
       <c r="P13" t="n">
-        <v>26.8</v>
+        <v>26.9</v>
       </c>
       <c r="Q13" t="n">
         <v>0.784</v>
       </c>
       <c r="R13" t="n">
-        <v>9.5</v>
+        <v>9.6</v>
       </c>
       <c r="S13" t="n">
-        <v>30.3</v>
+        <v>30.5</v>
       </c>
       <c r="T13" t="n">
-        <v>39.9</v>
+        <v>40</v>
       </c>
       <c r="U13" t="n">
-        <v>21.3</v>
+        <v>21.2</v>
       </c>
       <c r="V13" t="n">
-        <v>14.4</v>
+        <v>14.3</v>
       </c>
       <c r="W13" t="n">
         <v>6.9</v>
@@ -2740,13 +2807,13 @@
         <v>22</v>
       </c>
       <c r="AB13" t="n">
-        <v>94.2</v>
+        <v>94.09999999999999</v>
       </c>
       <c r="AC13" t="n">
         <v>-6.4</v>
       </c>
       <c r="AD13" t="n">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="AE13" t="n">
         <v>25</v>
@@ -2758,7 +2825,7 @@
         <v>25</v>
       </c>
       <c r="AH13" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AI13" t="n">
         <v>30</v>
@@ -2767,7 +2834,7 @@
         <v>25</v>
       </c>
       <c r="AK13" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="AL13" t="n">
         <v>28</v>
@@ -2779,10 +2846,10 @@
         <v>29</v>
       </c>
       <c r="AO13" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AP13" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AQ13" t="n">
         <v>5</v>
@@ -2821,7 +2888,7 @@
         <v>29</v>
       </c>
       <c r="BC13" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="BD13" t="n">
         <v>10</v>
@@ -2833,7 +2900,7 @@
       </c>
       <c r="BF13" t="inlineStr">
         <is>
-          <t>3-21-2007-08</t>
+          <t>2008-03-21</t>
         </is>
       </c>
     </row>
@@ -2850,46 +2917,46 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E14" t="n">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F14" t="n">
         <v>21</v>
       </c>
       <c r="G14" t="n">
-        <v>0.696</v>
+        <v>0.6909999999999999</v>
       </c>
       <c r="H14" t="n">
         <v>48.1</v>
       </c>
       <c r="I14" t="n">
-        <v>39.6</v>
+        <v>39.4</v>
       </c>
       <c r="J14" t="n">
         <v>82.8</v>
       </c>
       <c r="K14" t="n">
-        <v>0.478</v>
+        <v>0.477</v>
       </c>
       <c r="L14" t="n">
-        <v>7.7</v>
+        <v>7.6</v>
       </c>
       <c r="M14" t="n">
         <v>20.4</v>
       </c>
       <c r="N14" t="n">
-        <v>0.376</v>
+        <v>0.374</v>
       </c>
       <c r="O14" t="n">
-        <v>21.2</v>
+        <v>21.3</v>
       </c>
       <c r="P14" t="n">
-        <v>28</v>
+        <v>28.1</v>
       </c>
       <c r="Q14" t="n">
-        <v>0.76</v>
+        <v>0.759</v>
       </c>
       <c r="R14" t="n">
         <v>10.8</v>
@@ -2898,10 +2965,10 @@
         <v>33.2</v>
       </c>
       <c r="T14" t="n">
-        <v>43.9</v>
+        <v>44</v>
       </c>
       <c r="U14" t="n">
-        <v>24</v>
+        <v>23.8</v>
       </c>
       <c r="V14" t="n">
         <v>14.3</v>
@@ -2910,25 +2977,25 @@
         <v>8.199999999999999</v>
       </c>
       <c r="X14" t="n">
-        <v>5.2</v>
+        <v>5.3</v>
       </c>
       <c r="Y14" t="n">
-        <v>4.6</v>
+        <v>4.7</v>
       </c>
       <c r="Z14" t="n">
         <v>20.7</v>
       </c>
       <c r="AA14" t="n">
-        <v>22.6</v>
+        <v>22.7</v>
       </c>
       <c r="AB14" t="n">
-        <v>108.1</v>
+        <v>107.8</v>
       </c>
       <c r="AC14" t="n">
-        <v>7.2</v>
+        <v>7</v>
       </c>
       <c r="AD14" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AE14" t="n">
         <v>3</v>
@@ -2940,13 +3007,13 @@
         <v>3</v>
       </c>
       <c r="AH14" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AI14" t="n">
         <v>5</v>
       </c>
       <c r="AJ14" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AK14" t="n">
         <v>3</v>
@@ -2958,7 +3025,7 @@
         <v>7</v>
       </c>
       <c r="AN14" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AO14" t="n">
         <v>4</v>
@@ -2997,7 +3064,7 @@
         <v>12</v>
       </c>
       <c r="BA14" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="BB14" t="n">
         <v>4</v>
@@ -3015,7 +3082,7 @@
       </c>
       <c r="BF14" t="inlineStr">
         <is>
-          <t>3-21-2007-08</t>
+          <t>2008-03-21</t>
         </is>
       </c>
     </row>
@@ -3032,16 +3099,16 @@
         </is>
       </c>
       <c r="D15" t="n">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E15" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F15" t="n">
         <v>51</v>
       </c>
       <c r="G15" t="n">
-        <v>0.25</v>
+        <v>0.239</v>
       </c>
       <c r="H15" t="n">
         <v>48.3</v>
@@ -3053,31 +3120,31 @@
         <v>81.59999999999999</v>
       </c>
       <c r="K15" t="n">
-        <v>0.451</v>
+        <v>0.45</v>
       </c>
       <c r="L15" t="n">
-        <v>7.5</v>
+        <v>7.4</v>
       </c>
       <c r="M15" t="n">
         <v>21.3</v>
       </c>
       <c r="N15" t="n">
-        <v>0.351</v>
+        <v>0.349</v>
       </c>
       <c r="O15" t="n">
-        <v>18.5</v>
+        <v>18.4</v>
       </c>
       <c r="P15" t="n">
         <v>25.2</v>
       </c>
       <c r="Q15" t="n">
-        <v>0.731</v>
+        <v>0.729</v>
       </c>
       <c r="R15" t="n">
-        <v>10.4</v>
+        <v>10.5</v>
       </c>
       <c r="S15" t="n">
-        <v>31.2</v>
+        <v>31.1</v>
       </c>
       <c r="T15" t="n">
         <v>41.6</v>
@@ -3086,10 +3153,10 @@
         <v>19.1</v>
       </c>
       <c r="V15" t="n">
-        <v>15.5</v>
+        <v>15.6</v>
       </c>
       <c r="W15" t="n">
-        <v>6.1</v>
+        <v>6.2</v>
       </c>
       <c r="X15" t="n">
         <v>4.9</v>
@@ -3098,34 +3165,34 @@
         <v>4.9</v>
       </c>
       <c r="Z15" t="n">
-        <v>19.5</v>
+        <v>19.6</v>
       </c>
       <c r="AA15" t="n">
         <v>22.6</v>
       </c>
       <c r="AB15" t="n">
-        <v>99.59999999999999</v>
+        <v>99.3</v>
       </c>
       <c r="AC15" t="n">
-        <v>-6.2</v>
+        <v>-6.5</v>
       </c>
       <c r="AD15" t="n">
+        <v>21</v>
+      </c>
+      <c r="AE15" t="n">
+        <v>28</v>
+      </c>
+      <c r="AF15" t="n">
+        <v>28</v>
+      </c>
+      <c r="AG15" t="n">
+        <v>28</v>
+      </c>
+      <c r="AH15" t="n">
         <v>15</v>
       </c>
-      <c r="AE15" t="n">
-        <v>27</v>
-      </c>
-      <c r="AF15" t="n">
-        <v>27</v>
-      </c>
-      <c r="AG15" t="n">
-        <v>27</v>
-      </c>
-      <c r="AH15" t="n">
-        <v>16</v>
-      </c>
       <c r="AI15" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AJ15" t="n">
         <v>13</v>
@@ -3140,7 +3207,7 @@
         <v>5</v>
       </c>
       <c r="AN15" t="n">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="AO15" t="n">
         <v>17</v>
@@ -3149,7 +3216,7 @@
         <v>14</v>
       </c>
       <c r="AQ15" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AR15" t="n">
         <v>22</v>
@@ -3161,22 +3228,22 @@
         <v>17</v>
       </c>
       <c r="AU15" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AV15" t="n">
         <v>28</v>
       </c>
       <c r="AW15" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AX15" t="n">
         <v>15</v>
       </c>
       <c r="AY15" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AZ15" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="BA15" t="n">
         <v>7</v>
@@ -3185,7 +3252,7 @@
         <v>13</v>
       </c>
       <c r="BC15" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="BD15" t="n">
         <v>10</v>
@@ -3197,7 +3264,7 @@
       </c>
       <c r="BF15" t="inlineStr">
         <is>
-          <t>3-21-2007-08</t>
+          <t>2008-03-21</t>
         </is>
       </c>
     </row>
@@ -3214,64 +3281,64 @@
         </is>
       </c>
       <c r="D16" t="n">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E16" t="n">
         <v>12</v>
       </c>
       <c r="F16" t="n">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G16" t="n">
-        <v>0.176</v>
+        <v>0.179</v>
       </c>
       <c r="H16" t="n">
         <v>48.4</v>
       </c>
       <c r="I16" t="n">
-        <v>35.2</v>
+        <v>35.3</v>
       </c>
       <c r="J16" t="n">
-        <v>77.8</v>
+        <v>78</v>
       </c>
       <c r="K16" t="n">
         <v>0.453</v>
       </c>
       <c r="L16" t="n">
-        <v>5.4</v>
+        <v>5.3</v>
       </c>
       <c r="M16" t="n">
-        <v>15.4</v>
+        <v>15.2</v>
       </c>
       <c r="N16" t="n">
         <v>0.35</v>
       </c>
       <c r="O16" t="n">
-        <v>17.1</v>
+        <v>17.2</v>
       </c>
       <c r="P16" t="n">
-        <v>23.8</v>
+        <v>23.9</v>
       </c>
       <c r="Q16" t="n">
         <v>0.72</v>
       </c>
       <c r="R16" t="n">
-        <v>9.1</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="S16" t="n">
         <v>28.8</v>
       </c>
       <c r="T16" t="n">
-        <v>37.9</v>
+        <v>38</v>
       </c>
       <c r="U16" t="n">
-        <v>20.3</v>
+        <v>20.2</v>
       </c>
       <c r="V16" t="n">
         <v>14.9</v>
       </c>
       <c r="W16" t="n">
-        <v>7</v>
+        <v>7.1</v>
       </c>
       <c r="X16" t="n">
         <v>4.2</v>
@@ -3286,13 +3353,13 @@
         <v>20.6</v>
       </c>
       <c r="AB16" t="n">
-        <v>93</v>
+        <v>93.09999999999999</v>
       </c>
       <c r="AC16" t="n">
-        <v>-8.300000000000001</v>
+        <v>-8.199999999999999</v>
       </c>
       <c r="AD16" t="n">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="AE16" t="n">
         <v>30</v>
@@ -3304,7 +3371,7 @@
         <v>30</v>
       </c>
       <c r="AH16" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AI16" t="n">
         <v>28</v>
@@ -3322,7 +3389,7 @@
         <v>25</v>
       </c>
       <c r="AN16" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AO16" t="n">
         <v>25</v>
@@ -3331,7 +3398,7 @@
         <v>22</v>
       </c>
       <c r="AQ16" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AR16" t="n">
         <v>29</v>
@@ -3346,7 +3413,7 @@
         <v>23</v>
       </c>
       <c r="AV16" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AW16" t="n">
         <v>19</v>
@@ -3379,7 +3446,7 @@
       </c>
       <c r="BF16" t="inlineStr">
         <is>
-          <t>3-21-2007-08</t>
+          <t>2008-03-21</t>
         </is>
       </c>
     </row>
@@ -3474,7 +3541,7 @@
         <v>-6.7</v>
       </c>
       <c r="AD17" t="n">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="AE17" t="n">
         <v>24</v>
@@ -3492,10 +3559,10 @@
         <v>18</v>
       </c>
       <c r="AJ17" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AK17" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AL17" t="n">
         <v>23</v>
@@ -3507,7 +3574,7 @@
         <v>26</v>
       </c>
       <c r="AO17" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AP17" t="n">
         <v>21</v>
@@ -3525,19 +3592,19 @@
         <v>22</v>
       </c>
       <c r="AU17" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AV17" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AW17" t="n">
         <v>23</v>
       </c>
       <c r="AX17" t="n">
+        <v>19</v>
+      </c>
+      <c r="AY17" t="n">
         <v>20</v>
-      </c>
-      <c r="AY17" t="n">
-        <v>21</v>
       </c>
       <c r="AZ17" t="n">
         <v>20</v>
@@ -3549,7 +3616,7 @@
         <v>22</v>
       </c>
       <c r="BC17" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="BD17" t="n">
         <v>10</v>
@@ -3561,7 +3628,7 @@
       </c>
       <c r="BF17" t="inlineStr">
         <is>
-          <t>3-21-2007-08</t>
+          <t>2008-03-21</t>
         </is>
       </c>
     </row>
@@ -3578,58 +3645,58 @@
         </is>
       </c>
       <c r="D18" t="n">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E18" t="n">
         <v>17</v>
       </c>
       <c r="F18" t="n">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="G18" t="n">
-        <v>0.25</v>
+        <v>0.254</v>
       </c>
       <c r="H18" t="n">
         <v>48.1</v>
       </c>
       <c r="I18" t="n">
-        <v>37</v>
+        <v>36.9</v>
       </c>
       <c r="J18" t="n">
         <v>82.8</v>
       </c>
       <c r="K18" t="n">
-        <v>0.448</v>
+        <v>0.446</v>
       </c>
       <c r="L18" t="n">
         <v>5.3</v>
       </c>
       <c r="M18" t="n">
-        <v>15.5</v>
+        <v>15.4</v>
       </c>
       <c r="N18" t="n">
-        <v>0.343</v>
+        <v>0.341</v>
       </c>
       <c r="O18" t="n">
-        <v>15.1</v>
+        <v>15.2</v>
       </c>
       <c r="P18" t="n">
-        <v>20.7</v>
+        <v>20.8</v>
       </c>
       <c r="Q18" t="n">
         <v>0.73</v>
       </c>
       <c r="R18" t="n">
-        <v>11.8</v>
+        <v>11.9</v>
       </c>
       <c r="S18" t="n">
         <v>29.6</v>
       </c>
       <c r="T18" t="n">
-        <v>41.4</v>
+        <v>41.5</v>
       </c>
       <c r="U18" t="n">
-        <v>19.8</v>
+        <v>19.7</v>
       </c>
       <c r="V18" t="n">
         <v>15</v>
@@ -3638,7 +3705,7 @@
         <v>7.5</v>
       </c>
       <c r="X18" t="n">
-        <v>3.8</v>
+        <v>3.7</v>
       </c>
       <c r="Y18" t="n">
         <v>5.9</v>
@@ -3650,13 +3717,13 @@
         <v>17.6</v>
       </c>
       <c r="AB18" t="n">
-        <v>94.5</v>
+        <v>94.3</v>
       </c>
       <c r="AC18" t="n">
-        <v>-6.9</v>
+        <v>-6.8</v>
       </c>
       <c r="AD18" t="n">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="AE18" t="n">
         <v>27</v>
@@ -3674,10 +3741,10 @@
         <v>12</v>
       </c>
       <c r="AJ18" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AK18" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AL18" t="n">
         <v>25</v>
@@ -3695,22 +3762,22 @@
         <v>28</v>
       </c>
       <c r="AQ18" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AR18" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AS18" t="n">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="AT18" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AU18" t="n">
         <v>26</v>
       </c>
       <c r="AV18" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AW18" t="n">
         <v>12</v>
@@ -3722,7 +3789,7 @@
         <v>29</v>
       </c>
       <c r="AZ18" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="BA18" t="n">
         <v>30</v>
@@ -3743,7 +3810,7 @@
       </c>
       <c r="BF18" t="inlineStr">
         <is>
-          <t>3-21-2007-08</t>
+          <t>2008-03-21</t>
         </is>
       </c>
     </row>
@@ -3760,64 +3827,64 @@
         </is>
       </c>
       <c r="D19" t="n">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E19" t="n">
         <v>29</v>
       </c>
       <c r="F19" t="n">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G19" t="n">
-        <v>0.42</v>
+        <v>0.426</v>
       </c>
       <c r="H19" t="n">
         <v>48.4</v>
       </c>
       <c r="I19" t="n">
-        <v>34.5</v>
+        <v>34.4</v>
       </c>
       <c r="J19" t="n">
-        <v>78.40000000000001</v>
+        <v>78.3</v>
       </c>
       <c r="K19" t="n">
-        <v>0.44</v>
+        <v>0.439</v>
       </c>
       <c r="L19" t="n">
         <v>5.8</v>
       </c>
       <c r="M19" t="n">
-        <v>16.9</v>
+        <v>16.8</v>
       </c>
       <c r="N19" t="n">
-        <v>0.344</v>
+        <v>0.345</v>
       </c>
       <c r="O19" t="n">
-        <v>20.2</v>
+        <v>20.1</v>
       </c>
       <c r="P19" t="n">
         <v>27.6</v>
       </c>
       <c r="Q19" t="n">
-        <v>0.729</v>
+        <v>0.728</v>
       </c>
       <c r="R19" t="n">
-        <v>11.4</v>
+        <v>11.5</v>
       </c>
       <c r="S19" t="n">
         <v>30.8</v>
       </c>
       <c r="T19" t="n">
-        <v>42.3</v>
+        <v>42.2</v>
       </c>
       <c r="U19" t="n">
         <v>23.3</v>
       </c>
       <c r="V19" t="n">
-        <v>15.2</v>
+        <v>15.1</v>
       </c>
       <c r="W19" t="n">
-        <v>6.4</v>
+        <v>6.5</v>
       </c>
       <c r="X19" t="n">
         <v>4.7</v>
@@ -3832,25 +3899,25 @@
         <v>22.4</v>
       </c>
       <c r="AB19" t="n">
-        <v>94.90000000000001</v>
+        <v>94.7</v>
       </c>
       <c r="AC19" t="n">
-        <v>-5.2</v>
+        <v>-5.1</v>
       </c>
       <c r="AD19" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AE19" t="n">
         <v>19</v>
       </c>
       <c r="AF19" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AG19" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AH19" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AI19" t="n">
         <v>29</v>
@@ -3865,10 +3932,10 @@
         <v>20</v>
       </c>
       <c r="AM19" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AN19" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AO19" t="n">
         <v>10</v>
@@ -3889,10 +3956,10 @@
         <v>12</v>
       </c>
       <c r="AU19" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AV19" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AW19" t="n">
         <v>25</v>
@@ -3925,7 +3992,7 @@
       </c>
       <c r="BF19" t="inlineStr">
         <is>
-          <t>3-21-2007-08</t>
+          <t>2008-03-21</t>
         </is>
       </c>
     </row>
@@ -4020,10 +4087,10 @@
         <v>5.3</v>
       </c>
       <c r="AD20" t="n">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="AE20" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AF20" t="n">
         <v>3</v>
@@ -4077,7 +4144,7 @@
         <v>3</v>
       </c>
       <c r="AW20" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AX20" t="n">
         <v>28</v>
@@ -4092,7 +4159,7 @@
         <v>28</v>
       </c>
       <c r="BB20" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="BC20" t="n">
         <v>5</v>
@@ -4107,7 +4174,7 @@
       </c>
       <c r="BF20" t="inlineStr">
         <is>
-          <t>3-21-2007-08</t>
+          <t>2008-03-21</t>
         </is>
       </c>
     </row>
@@ -4124,25 +4191,25 @@
         </is>
       </c>
       <c r="D21" t="n">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E21" t="n">
         <v>19</v>
       </c>
       <c r="F21" t="n">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="G21" t="n">
-        <v>0.279</v>
+        <v>0.284</v>
       </c>
       <c r="H21" t="n">
         <v>48.4</v>
       </c>
       <c r="I21" t="n">
-        <v>35.4</v>
+        <v>35.3</v>
       </c>
       <c r="J21" t="n">
-        <v>80.7</v>
+        <v>80.5</v>
       </c>
       <c r="K21" t="n">
         <v>0.438</v>
@@ -4154,7 +4221,7 @@
         <v>17.2</v>
       </c>
       <c r="N21" t="n">
-        <v>0.335</v>
+        <v>0.336</v>
       </c>
       <c r="O21" t="n">
         <v>18.9</v>
@@ -4163,28 +4230,28 @@
         <v>26.1</v>
       </c>
       <c r="Q21" t="n">
-        <v>0.726</v>
+        <v>0.724</v>
       </c>
       <c r="R21" t="n">
-        <v>12.1</v>
+        <v>12.2</v>
       </c>
       <c r="S21" t="n">
         <v>29.7</v>
       </c>
       <c r="T21" t="n">
-        <v>41.8</v>
+        <v>41.9</v>
       </c>
       <c r="U21" t="n">
-        <v>18.3</v>
+        <v>18.2</v>
       </c>
       <c r="V21" t="n">
-        <v>14.8</v>
+        <v>14.9</v>
       </c>
       <c r="W21" t="n">
-        <v>6.2</v>
+        <v>6.1</v>
       </c>
       <c r="X21" t="n">
-        <v>2.5</v>
+        <v>2.6</v>
       </c>
       <c r="Y21" t="n">
         <v>5.2</v>
@@ -4193,16 +4260,16 @@
         <v>21.4</v>
       </c>
       <c r="AA21" t="n">
-        <v>20.9</v>
+        <v>21</v>
       </c>
       <c r="AB21" t="n">
-        <v>95.5</v>
+        <v>95.3</v>
       </c>
       <c r="AC21" t="n">
-        <v>-6.8</v>
+        <v>-6.7</v>
       </c>
       <c r="AD21" t="n">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="AE21" t="n">
         <v>26</v>
@@ -4223,7 +4290,7 @@
         <v>17</v>
       </c>
       <c r="AK21" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AL21" t="n">
         <v>21</v>
@@ -4256,10 +4323,10 @@
         <v>30</v>
       </c>
       <c r="AV21" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AW21" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AX21" t="n">
         <v>30</v>
@@ -4271,13 +4338,13 @@
         <v>19</v>
       </c>
       <c r="BA21" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="BB21" t="n">
         <v>26</v>
       </c>
       <c r="BC21" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="BD21" t="n">
         <v>10</v>
@@ -4289,7 +4356,7 @@
       </c>
       <c r="BF21" t="inlineStr">
         <is>
-          <t>3-21-2007-08</t>
+          <t>2008-03-21</t>
         </is>
       </c>
     </row>
@@ -4306,16 +4373,16 @@
         </is>
       </c>
       <c r="D22" t="n">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E22" t="n">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F22" t="n">
         <v>25</v>
       </c>
       <c r="G22" t="n">
-        <v>0.648</v>
+        <v>0.643</v>
       </c>
       <c r="H22" t="n">
         <v>48.3</v>
@@ -4330,37 +4397,37 @@
         <v>0.474</v>
       </c>
       <c r="L22" t="n">
-        <v>9.699999999999999</v>
+        <v>9.6</v>
       </c>
       <c r="M22" t="n">
         <v>25</v>
       </c>
       <c r="N22" t="n">
-        <v>0.386</v>
+        <v>0.383</v>
       </c>
       <c r="O22" t="n">
         <v>20.8</v>
       </c>
       <c r="P22" t="n">
-        <v>28.5</v>
+        <v>28.7</v>
       </c>
       <c r="Q22" t="n">
-        <v>0.728</v>
+        <v>0.726</v>
       </c>
       <c r="R22" t="n">
         <v>9.5</v>
       </c>
       <c r="S22" t="n">
-        <v>32.6</v>
+        <v>32.7</v>
       </c>
       <c r="T22" t="n">
-        <v>42.2</v>
+        <v>42.1</v>
       </c>
       <c r="U22" t="n">
-        <v>20.5</v>
+        <v>20.4</v>
       </c>
       <c r="V22" t="n">
-        <v>14.5</v>
+        <v>14.4</v>
       </c>
       <c r="W22" t="n">
         <v>6.1</v>
@@ -4378,16 +4445,16 @@
         <v>23.7</v>
       </c>
       <c r="AB22" t="n">
-        <v>104.9</v>
+        <v>104.7</v>
       </c>
       <c r="AC22" t="n">
-        <v>5</v>
+        <v>4.9</v>
       </c>
       <c r="AD22" t="n">
         <v>1</v>
       </c>
       <c r="AE22" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="AF22" t="n">
         <v>8</v>
@@ -4405,7 +4472,7 @@
         <v>26</v>
       </c>
       <c r="AK22" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AL22" t="n">
         <v>1</v>
@@ -4438,7 +4505,7 @@
         <v>22</v>
       </c>
       <c r="AV22" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AW22" t="n">
         <v>28</v>
@@ -4447,7 +4514,7 @@
         <v>25</v>
       </c>
       <c r="AY22" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AZ22" t="n">
         <v>11</v>
@@ -4471,7 +4538,7 @@
       </c>
       <c r="BF22" t="inlineStr">
         <is>
-          <t>3-21-2007-08</t>
+          <t>2008-03-21</t>
         </is>
       </c>
     </row>
@@ -4488,16 +4555,16 @@
         </is>
       </c>
       <c r="D23" t="n">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E23" t="n">
         <v>34</v>
       </c>
       <c r="F23" t="n">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G23" t="n">
-        <v>0.493</v>
+        <v>0.5</v>
       </c>
       <c r="H23" t="n">
         <v>48.2</v>
@@ -4506,13 +4573,13 @@
         <v>37.4</v>
       </c>
       <c r="J23" t="n">
-        <v>81</v>
+        <v>80.90000000000001</v>
       </c>
       <c r="K23" t="n">
         <v>0.461</v>
       </c>
       <c r="L23" t="n">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="M23" t="n">
         <v>11.1</v>
@@ -4521,19 +4588,19 @@
         <v>0.319</v>
       </c>
       <c r="O23" t="n">
-        <v>18.3</v>
+        <v>18.4</v>
       </c>
       <c r="P23" t="n">
         <v>26</v>
       </c>
       <c r="Q23" t="n">
-        <v>0.705</v>
+        <v>0.707</v>
       </c>
       <c r="R23" t="n">
         <v>13.1</v>
       </c>
       <c r="S23" t="n">
-        <v>28.8</v>
+        <v>28.9</v>
       </c>
       <c r="T23" t="n">
         <v>42</v>
@@ -4563,13 +4630,13 @@
         <v>96.59999999999999</v>
       </c>
       <c r="AC23" t="n">
-        <v>0.6</v>
+        <v>0.8</v>
       </c>
       <c r="AD23" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AE23" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AF23" t="n">
         <v>17</v>
@@ -4578,7 +4645,7 @@
         <v>17</v>
       </c>
       <c r="AH23" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AI23" t="n">
         <v>10</v>
@@ -4632,13 +4699,13 @@
         <v>15</v>
       </c>
       <c r="AZ23" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="BA23" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="BB23" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="BC23" t="n">
         <v>14</v>
@@ -4653,7 +4720,7 @@
       </c>
       <c r="BF23" t="inlineStr">
         <is>
-          <t>3-21-2007-08</t>
+          <t>2008-03-21</t>
         </is>
       </c>
     </row>
@@ -4748,19 +4815,19 @@
         <v>5.1</v>
       </c>
       <c r="AD24" t="n">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="AE24" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AF24" t="n">
         <v>5</v>
       </c>
       <c r="AG24" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AH24" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AI24" t="n">
         <v>1</v>
@@ -4793,7 +4860,7 @@
         <v>30</v>
       </c>
       <c r="AS24" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AT24" t="n">
         <v>20</v>
@@ -4811,7 +4878,7 @@
         <v>2</v>
       </c>
       <c r="AY24" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AZ24" t="n">
         <v>8</v>
@@ -4835,7 +4902,7 @@
       </c>
       <c r="BF24" t="inlineStr">
         <is>
-          <t>3-21-2007-08</t>
+          <t>2008-03-21</t>
         </is>
       </c>
     </row>
@@ -4852,16 +4919,16 @@
         </is>
       </c>
       <c r="D25" t="n">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E25" t="n">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F25" t="n">
         <v>33</v>
       </c>
       <c r="G25" t="n">
-        <v>0.522</v>
+        <v>0.515</v>
       </c>
       <c r="H25" t="n">
         <v>48.7</v>
@@ -4870,10 +4937,10 @@
         <v>35.8</v>
       </c>
       <c r="J25" t="n">
-        <v>79.2</v>
+        <v>79.3</v>
       </c>
       <c r="K25" t="n">
-        <v>0.452</v>
+        <v>0.451</v>
       </c>
       <c r="L25" t="n">
         <v>6.4</v>
@@ -4882,13 +4949,13 @@
         <v>17.1</v>
       </c>
       <c r="N25" t="n">
-        <v>0.376</v>
+        <v>0.375</v>
       </c>
       <c r="O25" t="n">
-        <v>17.8</v>
+        <v>17.9</v>
       </c>
       <c r="P25" t="n">
-        <v>23.2</v>
+        <v>23.3</v>
       </c>
       <c r="Q25" t="n">
         <v>0.767</v>
@@ -4900,10 +4967,10 @@
         <v>29.6</v>
       </c>
       <c r="T25" t="n">
-        <v>40.2</v>
+        <v>40.3</v>
       </c>
       <c r="U25" t="n">
-        <v>21.1</v>
+        <v>21</v>
       </c>
       <c r="V25" t="n">
         <v>13.1</v>
@@ -4924,13 +4991,13 @@
         <v>20.6</v>
       </c>
       <c r="AB25" t="n">
-        <v>95.90000000000001</v>
+        <v>95.8</v>
       </c>
       <c r="AC25" t="n">
-        <v>-0.8</v>
+        <v>-0.9</v>
       </c>
       <c r="AD25" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AE25" t="n">
         <v>14</v>
@@ -4960,7 +5027,7 @@
         <v>17</v>
       </c>
       <c r="AN25" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AO25" t="n">
         <v>22</v>
@@ -4975,13 +5042,13 @@
         <v>21</v>
       </c>
       <c r="AS25" t="n">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="AT25" t="n">
         <v>27</v>
       </c>
       <c r="AU25" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AV25" t="n">
         <v>6</v>
@@ -4990,10 +5057,10 @@
         <v>30</v>
       </c>
       <c r="AX25" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AY25" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AZ25" t="n">
         <v>9</v>
@@ -5017,7 +5084,7 @@
       </c>
       <c r="BF25" t="inlineStr">
         <is>
-          <t>3-21-2007-08</t>
+          <t>2008-03-21</t>
         </is>
       </c>
     </row>
@@ -5034,40 +5101,40 @@
         </is>
       </c>
       <c r="D26" t="n">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E26" t="n">
         <v>31</v>
       </c>
       <c r="F26" t="n">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G26" t="n">
-        <v>0.456</v>
+        <v>0.463</v>
       </c>
       <c r="H26" t="n">
         <v>48.4</v>
       </c>
       <c r="I26" t="n">
-        <v>36.7</v>
+        <v>36.8</v>
       </c>
       <c r="J26" t="n">
-        <v>79.8</v>
+        <v>79.90000000000001</v>
       </c>
       <c r="K26" t="n">
-        <v>0.46</v>
+        <v>0.461</v>
       </c>
       <c r="L26" t="n">
         <v>6.2</v>
       </c>
       <c r="M26" t="n">
-        <v>16.7</v>
+        <v>16.8</v>
       </c>
       <c r="N26" t="n">
         <v>0.371</v>
       </c>
       <c r="O26" t="n">
-        <v>22.1</v>
+        <v>22</v>
       </c>
       <c r="P26" t="n">
         <v>27.8</v>
@@ -5076,19 +5143,19 @@
         <v>0.794</v>
       </c>
       <c r="R26" t="n">
-        <v>10.4</v>
+        <v>10.3</v>
       </c>
       <c r="S26" t="n">
-        <v>30</v>
+        <v>30.1</v>
       </c>
       <c r="T26" t="n">
         <v>40.4</v>
       </c>
       <c r="U26" t="n">
-        <v>18.9</v>
+        <v>19.1</v>
       </c>
       <c r="V26" t="n">
-        <v>16</v>
+        <v>16.1</v>
       </c>
       <c r="W26" t="n">
         <v>7.8</v>
@@ -5106,13 +5173,13 @@
         <v>23.1</v>
       </c>
       <c r="AB26" t="n">
-        <v>101.7</v>
+        <v>101.9</v>
       </c>
       <c r="AC26" t="n">
-        <v>-2.3</v>
+        <v>-2.2</v>
       </c>
       <c r="AD26" t="n">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="AE26" t="n">
         <v>18</v>
@@ -5124,16 +5191,16 @@
         <v>18</v>
       </c>
       <c r="AH26" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AI26" t="n">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="AJ26" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AK26" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AL26" t="n">
         <v>17</v>
@@ -5172,7 +5239,7 @@
         <v>8</v>
       </c>
       <c r="AX26" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AY26" t="n">
         <v>27</v>
@@ -5187,7 +5254,7 @@
         <v>8</v>
       </c>
       <c r="BC26" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="BD26" t="n">
         <v>10</v>
@@ -5199,7 +5266,7 @@
       </c>
       <c r="BF26" t="inlineStr">
         <is>
-          <t>3-21-2007-08</t>
+          <t>2008-03-21</t>
         </is>
       </c>
     </row>
@@ -5216,58 +5283,58 @@
         </is>
       </c>
       <c r="D27" t="n">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E27" t="n">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F27" t="n">
         <v>23</v>
       </c>
       <c r="G27" t="n">
-        <v>0.667</v>
+        <v>0.662</v>
       </c>
       <c r="H27" t="n">
         <v>48.1</v>
       </c>
       <c r="I27" t="n">
-        <v>35.7</v>
+        <v>35.6</v>
       </c>
       <c r="J27" t="n">
-        <v>78.40000000000001</v>
+        <v>78.5</v>
       </c>
       <c r="K27" t="n">
-        <v>0.455</v>
+        <v>0.454</v>
       </c>
       <c r="L27" t="n">
         <v>7.6</v>
       </c>
       <c r="M27" t="n">
-        <v>20.2</v>
+        <v>20.4</v>
       </c>
       <c r="N27" t="n">
-        <v>0.373</v>
+        <v>0.371</v>
       </c>
       <c r="O27" t="n">
-        <v>16.8</v>
+        <v>16.7</v>
       </c>
       <c r="P27" t="n">
         <v>22</v>
       </c>
       <c r="Q27" t="n">
-        <v>0.762</v>
+        <v>0.761</v>
       </c>
       <c r="R27" t="n">
         <v>9.800000000000001</v>
       </c>
       <c r="S27" t="n">
-        <v>31.3</v>
+        <v>31.4</v>
       </c>
       <c r="T27" t="n">
-        <v>41.1</v>
+        <v>41.2</v>
       </c>
       <c r="U27" t="n">
-        <v>21.3</v>
+        <v>21.2</v>
       </c>
       <c r="V27" t="n">
         <v>12.8</v>
@@ -5288,16 +5355,16 @@
         <v>20.1</v>
       </c>
       <c r="AB27" t="n">
-        <v>95.59999999999999</v>
+        <v>95.5</v>
       </c>
       <c r="AC27" t="n">
-        <v>4.5</v>
+        <v>4.4</v>
       </c>
       <c r="AD27" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AE27" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="AF27" t="n">
         <v>7</v>
@@ -5306,7 +5373,7 @@
         <v>7</v>
       </c>
       <c r="AH27" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AI27" t="n">
         <v>25</v>
@@ -5324,7 +5391,7 @@
         <v>8</v>
       </c>
       <c r="AN27" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AO27" t="n">
         <v>26</v>
@@ -5381,7 +5448,7 @@
       </c>
       <c r="BF27" t="inlineStr">
         <is>
-          <t>3-21-2007-08</t>
+          <t>2008-03-21</t>
         </is>
       </c>
     </row>
@@ -5398,16 +5465,16 @@
         </is>
       </c>
       <c r="D28" t="n">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E28" t="n">
         <v>16</v>
       </c>
       <c r="F28" t="n">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="G28" t="n">
-        <v>0.232</v>
+        <v>0.235</v>
       </c>
       <c r="H28" t="n">
         <v>48.3</v>
@@ -5416,7 +5483,7 @@
         <v>38</v>
       </c>
       <c r="J28" t="n">
-        <v>85.40000000000001</v>
+        <v>85.3</v>
       </c>
       <c r="K28" t="n">
         <v>0.445</v>
@@ -5440,10 +5507,10 @@
         <v>0.767</v>
       </c>
       <c r="R28" t="n">
-        <v>11.9</v>
+        <v>11.8</v>
       </c>
       <c r="S28" t="n">
-        <v>32.7</v>
+        <v>32.9</v>
       </c>
       <c r="T28" t="n">
         <v>44.7</v>
@@ -5458,28 +5525,28 @@
         <v>6.5</v>
       </c>
       <c r="X28" t="n">
-        <v>5.1</v>
+        <v>5.2</v>
       </c>
       <c r="Y28" t="n">
-        <v>5.4</v>
+        <v>5.5</v>
       </c>
       <c r="Z28" t="n">
-        <v>20.7</v>
+        <v>20.9</v>
       </c>
       <c r="AA28" t="n">
         <v>19.7</v>
       </c>
       <c r="AB28" t="n">
-        <v>97.7</v>
+        <v>97.59999999999999</v>
       </c>
       <c r="AC28" t="n">
-        <v>-9</v>
+        <v>-8.699999999999999</v>
       </c>
       <c r="AD28" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AE28" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AF28" t="n">
         <v>29</v>
@@ -5497,7 +5564,7 @@
         <v>4</v>
       </c>
       <c r="AK28" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AL28" t="n">
         <v>29</v>
@@ -5509,7 +5576,7 @@
         <v>27</v>
       </c>
       <c r="AO28" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AP28" t="n">
         <v>25</v>
@@ -5518,7 +5585,7 @@
         <v>12</v>
       </c>
       <c r="AR28" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AS28" t="n">
         <v>2</v>
@@ -5542,7 +5609,7 @@
         <v>26</v>
       </c>
       <c r="AZ28" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="BA28" t="n">
         <v>26</v>
@@ -5563,7 +5630,7 @@
       </c>
       <c r="BF28" t="inlineStr">
         <is>
-          <t>3-21-2007-08</t>
+          <t>2008-03-21</t>
         </is>
       </c>
     </row>
@@ -5580,28 +5647,28 @@
         </is>
       </c>
       <c r="D29" t="n">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E29" t="n">
         <v>35</v>
       </c>
       <c r="F29" t="n">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G29" t="n">
-        <v>0.507</v>
+        <v>0.515</v>
       </c>
       <c r="H29" t="n">
         <v>48.4</v>
       </c>
       <c r="I29" t="n">
-        <v>38.2</v>
+        <v>38.3</v>
       </c>
       <c r="J29" t="n">
-        <v>82</v>
+        <v>81.90000000000001</v>
       </c>
       <c r="K29" t="n">
-        <v>0.466</v>
+        <v>0.467</v>
       </c>
       <c r="L29" t="n">
         <v>7.3</v>
@@ -5610,13 +5677,13 @@
         <v>18</v>
       </c>
       <c r="N29" t="n">
-        <v>0.404</v>
+        <v>0.405</v>
       </c>
       <c r="O29" t="n">
-        <v>16.4</v>
+        <v>16.5</v>
       </c>
       <c r="P29" t="n">
-        <v>20.2</v>
+        <v>20.3</v>
       </c>
       <c r="Q29" t="n">
         <v>0.8110000000000001</v>
@@ -5625,10 +5692,10 @@
         <v>9.699999999999999</v>
       </c>
       <c r="S29" t="n">
-        <v>30.5</v>
+        <v>30.6</v>
       </c>
       <c r="T29" t="n">
-        <v>40.2</v>
+        <v>40.3</v>
       </c>
       <c r="U29" t="n">
         <v>23.3</v>
@@ -5646,31 +5713,31 @@
         <v>4.1</v>
       </c>
       <c r="Z29" t="n">
-        <v>19.7</v>
+        <v>19.8</v>
       </c>
       <c r="AA29" t="n">
-        <v>18.3</v>
+        <v>18.4</v>
       </c>
       <c r="AB29" t="n">
-        <v>100</v>
+        <v>100.3</v>
       </c>
       <c r="AC29" t="n">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="AD29" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AE29" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AF29" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="AG29" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="AH29" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AI29" t="n">
         <v>7</v>
@@ -5679,7 +5746,7 @@
         <v>10</v>
       </c>
       <c r="AK29" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AL29" t="n">
         <v>9</v>
@@ -5709,7 +5776,7 @@
         <v>28</v>
       </c>
       <c r="AU29" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AV29" t="n">
         <v>2</v>
@@ -5724,13 +5791,13 @@
         <v>5</v>
       </c>
       <c r="AZ29" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="BA29" t="n">
         <v>29</v>
       </c>
       <c r="BB29" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="BC29" t="n">
         <v>12</v>
@@ -5745,7 +5812,7 @@
       </c>
       <c r="BF29" t="inlineStr">
         <is>
-          <t>3-21-2007-08</t>
+          <t>2008-03-21</t>
         </is>
       </c>
     </row>
@@ -5840,16 +5907,16 @@
         <v>5.9</v>
       </c>
       <c r="AD30" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AE30" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="AF30" t="n">
         <v>8</v>
       </c>
       <c r="AG30" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AH30" t="n">
         <v>30</v>
@@ -5870,7 +5937,7 @@
         <v>27</v>
       </c>
       <c r="AN30" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AO30" t="n">
         <v>3</v>
@@ -5882,7 +5949,7 @@
         <v>16</v>
       </c>
       <c r="AR30" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AS30" t="n">
         <v>26</v>
@@ -5894,7 +5961,7 @@
         <v>2</v>
       </c>
       <c r="AV30" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AW30" t="n">
         <v>3</v>
@@ -5927,7 +5994,7 @@
       </c>
       <c r="BF30" t="inlineStr">
         <is>
-          <t>3-21-2007-08</t>
+          <t>2008-03-21</t>
         </is>
       </c>
     </row>
@@ -5944,58 +6011,58 @@
         </is>
       </c>
       <c r="D31" t="n">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E31" t="n">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F31" t="n">
         <v>33</v>
       </c>
       <c r="G31" t="n">
-        <v>0.515</v>
+        <v>0.507</v>
       </c>
       <c r="H31" t="n">
         <v>48.6</v>
       </c>
       <c r="I31" t="n">
-        <v>36.3</v>
+        <v>36.2</v>
       </c>
       <c r="J31" t="n">
-        <v>81.8</v>
+        <v>81.90000000000001</v>
       </c>
       <c r="K31" t="n">
-        <v>0.443</v>
+        <v>0.442</v>
       </c>
       <c r="L31" t="n">
         <v>6.6</v>
       </c>
       <c r="M31" t="n">
-        <v>19.3</v>
+        <v>19.2</v>
       </c>
       <c r="N31" t="n">
-        <v>0.345</v>
+        <v>0.343</v>
       </c>
       <c r="O31" t="n">
-        <v>19.2</v>
+        <v>19.4</v>
       </c>
       <c r="P31" t="n">
         <v>24.5</v>
       </c>
       <c r="Q31" t="n">
-        <v>0.786</v>
+        <v>0.789</v>
       </c>
       <c r="R31" t="n">
-        <v>12.3</v>
+        <v>12.4</v>
       </c>
       <c r="S31" t="n">
         <v>29.6</v>
       </c>
       <c r="T31" t="n">
-        <v>41.9</v>
+        <v>42</v>
       </c>
       <c r="U31" t="n">
-        <v>19.2</v>
+        <v>19.1</v>
       </c>
       <c r="V31" t="n">
         <v>13.4</v>
@@ -6019,25 +6086,25 @@
         <v>98.40000000000001</v>
       </c>
       <c r="AC31" t="n">
-        <v>0.1</v>
+        <v>-0.2</v>
       </c>
       <c r="AD31" t="n">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="AE31" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AF31" t="n">
         <v>14</v>
       </c>
       <c r="AG31" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AH31" t="n">
         <v>2</v>
       </c>
       <c r="AI31" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AJ31" t="n">
         <v>11</v>
@@ -6052,22 +6119,22 @@
         <v>11</v>
       </c>
       <c r="AN31" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AO31" t="n">
         <v>11</v>
       </c>
       <c r="AP31" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AQ31" t="n">
         <v>4</v>
       </c>
       <c r="AR31" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AS31" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AT31" t="n">
         <v>15</v>
@@ -6088,7 +6155,7 @@
         <v>9</v>
       </c>
       <c r="AZ31" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="BA31" t="n">
         <v>22</v>
@@ -6109,7 +6176,7 @@
       </c>
       <c r="BF31" t="inlineStr">
         <is>
-          <t>3-21-2007-08</t>
+          <t>2008-03-21</t>
         </is>
       </c>
     </row>
